--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed5/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.366</v>
+        <v>-7.865</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.769</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.132</v>
+        <v>-12.379</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.004</v>
+        <v>-10.896</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.566</v>
+        <v>-7.722</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.572</v>
+        <v>-13.117</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.785999999999999</v>
+        <v>-8.026999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.646</v>
+        <v>-13.046</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.736</v>
+        <v>-13.012</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.622</v>
+        <v>-13.647</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.046000000000001</v>
+        <v>-8.51</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-14.07</v>
+        <v>-13.895</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.736</v>
+        <v>-7.854000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.84</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.164</v>
+        <v>-7.632</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.324</v>
+        <v>-12.703</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.795999999999999</v>
+        <v>-7.217999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.348000000000001</v>
+        <v>-7.854000000000001</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-8.4</v>
+        <v>-7.772999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.944</v>
+        <v>-14.009</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.412000000000001</v>
+        <v>-7.247999999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.818</v>
+        <v>-13.408</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.152</v>
+        <v>-13.307</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.214</v>
+        <v>-13.364</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.565999999999999</v>
+        <v>-8.451000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.906</v>
+        <v>-11.705</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.128</v>
+        <v>-11.038</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.258</v>
+        <v>-11.555</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.62</v>
+        <v>-13.013</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.221000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.474</v>
+        <v>-13.314</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.627999999999998</v>
+        <v>-8.461</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.526</v>
+        <v>-13.846</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.078</v>
+        <v>-10.885</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.244</v>
+        <v>-11.979</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.832</v>
+        <v>-12.635</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.540000000000001</v>
+        <v>-8.200999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.924000000000001</v>
+        <v>-7.577000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
